--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T08:02:25+00:00</t>
+    <t>2024-08-29T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T08:02:49+00:00</t>
+    <t>2024-08-29T13:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T13:19:54+00:00</t>
+    <t>2024-08-30T15:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T15:18:37+00:00</t>
+    <t>2024-09-02T07:30:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-02T07:30:41+00:00</t>
+    <t>2024-09-02T10:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T08:52:24+00:00</t>
+    <t>2024-09-05T14:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:43:00+00:00</t>
+    <t>2024-09-05T15:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:05:05+00:00</t>
+    <t>2024-09-05T15:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:42:45+00:00</t>
+    <t>2024-09-05T15:55:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:55:57+00:00</t>
+    <t>2024-09-05T15:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:56:49+00:00</t>
+    <t>2024-09-06T07:42:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T07:42:23+00:00</t>
+    <t>2024-09-23T13:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T13:32:27+00:00</t>
+    <t>2024-10-21T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T14:11:02+00:00</t>
+    <t>2024-11-04T17:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T17:05:23+00:00</t>
+    <t>2024-11-04T17:44:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T17:44:00+00:00</t>
+    <t>2024-11-06T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T14:17:39+00:00</t>
+    <t>2024-11-08T16:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:57:40+00:00</t>
+    <t>2024-11-12T17:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T17:14:44+00:00</t>
+    <t>2024-11-18T14:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T14:04:27+00:00</t>
+    <t>2024-11-18T15:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:32:48+00:00</t>
+    <t>2024-12-02T15:45:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:45:18+00:00</t>
+    <t>2024-12-03T14:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T14:08:49+00:00</t>
+    <t>2024-12-03T16:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:43:00+00:00</t>
+    <t>2024-12-03T17:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:24:51+00:00</t>
+    <t>2024-12-05T15:50:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T15:50:46+00:00</t>
+    <t>2024-12-05T17:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:04:27+00:00</t>
+    <t>2024-12-10T10:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T10:08:39+00:00</t>
+    <t>2024-12-10T11:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:59:20+00:00</t>
+    <t>2024-12-17T08:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from appointmentReaso" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T08:23:13+00:00</t>
+    <t>2025-01-27T12:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:37:17+00:00</t>
+    <t>2025-01-27T12:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:56:56+00:00</t>
+    <t>2025-01-27T16:27:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:27:44+00:00</t>
+    <t>2025-03-12T14:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T14:15:42+00:00</t>
+    <t>2025-07-01T07:19:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:19:50+00:00</t>
+    <t>2025-07-10T12:47:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:47:36+00:00</t>
+    <t>2025-09-02T16:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:23:58+00:00</t>
+    <t>2025-09-09T16:27:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T16:27:22+00:00</t>
+    <t>2025-11-04T10:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -310,43 +313,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
@@ -354,22 +359,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -391,42 +396,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T10:04:56+00:00</t>
+    <t>2025-11-21T13:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T13:35:41+00:00</t>
+    <t>2025-11-24T13:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T13:41:23+00:00</t>
+    <t>2025-11-24T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/main/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T14:06:07+00:00</t>
+    <t>2025-11-25T08:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
